--- a/ClassData/39Class.xlsx
+++ b/ClassData/39Class.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\AttributeProgram\ClassData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="ClassData" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="301">
   <si>
     <t>idx</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1221,14 +1216,18 @@
   </si>
   <si>
     <t>classZip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,7 +1339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1424,19 +1423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1741,13 +1727,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,7 +1842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1766,12 +1851,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1790,10 +1869,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1802,103 +1881,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1907,25 +1983,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1940,13 +2016,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2009,7 +2112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,10 +2144,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2076,7 +2178,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2252,2457 +2353,2457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" customWidth="1"/>
     <col min="2" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" customWidth="1"/>
+    <col min="8" max="9" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:9" ht="18" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="41">
-        <v>0</v>
-      </c>
-      <c r="G2" s="38">
-        <v>0</v>
-      </c>
-      <c r="H2" s="38">
-        <v>0</v>
-      </c>
-      <c r="I2" s="38">
+      <c r="F2" s="38">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35">
+        <v>0</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+    <row r="3" spans="1:9">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="42">
-        <v>0</v>
-      </c>
-      <c r="G3" s="39">
-        <v>0</v>
-      </c>
-      <c r="H3" s="39">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
+      <c r="F3" s="39">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="4" spans="1:9">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="42">
-        <v>0</v>
-      </c>
-      <c r="G4" s="39">
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
         <v>1</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="36">
         <v>1</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:9">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="42">
-        <v>0</v>
-      </c>
-      <c r="G5" s="39">
-        <v>0</v>
-      </c>
-      <c r="H5" s="39">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="6" spans="1:9">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="42">
-        <v>0</v>
-      </c>
-      <c r="G6" s="39">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
+      <c r="F6" s="39">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:9">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="42">
-        <v>0</v>
-      </c>
-      <c r="G7" s="39">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
+      <c r="F7" s="39">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:9">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="42">
-        <v>0</v>
-      </c>
-      <c r="G8" s="39">
-        <v>0</v>
-      </c>
-      <c r="H8" s="39">
-        <v>0</v>
-      </c>
-      <c r="I8" s="38">
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:9">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="42">
-        <v>0</v>
-      </c>
-      <c r="G9" s="39">
-        <v>0</v>
-      </c>
-      <c r="H9" s="39">
-        <v>0</v>
-      </c>
-      <c r="I9" s="38">
+      <c r="F9" s="39">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:9">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="42">
-        <v>0</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0</v>
-      </c>
-      <c r="H10" s="39">
-        <v>0</v>
-      </c>
-      <c r="I10" s="38">
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:9">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="39">
         <v>1</v>
       </c>
-      <c r="G11" s="39">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38">
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="12" spans="1:9">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="39">
         <v>1</v>
       </c>
-      <c r="G12" s="39">
-        <v>0</v>
-      </c>
-      <c r="H12" s="39">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:9">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="39">
         <v>1</v>
       </c>
-      <c r="G13" s="39">
-        <v>0</v>
-      </c>
-      <c r="H13" s="39">
-        <v>0</v>
-      </c>
-      <c r="I13" s="38">
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+    <row r="14" spans="1:9">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="42">
-        <v>0</v>
-      </c>
-      <c r="G14" s="39">
+      <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="H14" s="39">
+      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="39">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36">
         <v>1</v>
       </c>
-      <c r="I14" s="38">
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="39">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>1</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="39">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36">
+        <v>1</v>
+      </c>
+      <c r="H19" s="36">
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36">
+        <v>1</v>
+      </c>
+      <c r="H20" s="36">
+        <v>0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+      <c r="G21" s="36">
+        <v>1</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0</v>
+      </c>
+      <c r="I21" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0</v>
+      </c>
+      <c r="G22" s="36">
+        <v>1</v>
+      </c>
+      <c r="H22" s="36">
+        <v>0</v>
+      </c>
+      <c r="I22" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0</v>
+      </c>
+      <c r="G23" s="36">
+        <v>1</v>
+      </c>
+      <c r="H23" s="36">
+        <v>0</v>
+      </c>
+      <c r="I23" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="39">
+        <v>0</v>
+      </c>
+      <c r="G24" s="36">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36">
+        <v>0</v>
+      </c>
+      <c r="I24" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="14">
+        <v>23</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0</v>
+      </c>
+      <c r="G25" s="36">
+        <v>1</v>
+      </c>
+      <c r="H25" s="36">
+        <v>1</v>
+      </c>
+      <c r="I25" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="14">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0</v>
+      </c>
+      <c r="G26" s="36">
+        <v>0</v>
+      </c>
+      <c r="H26" s="36">
+        <v>0</v>
+      </c>
+      <c r="I26" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="14">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="39">
+        <v>2</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0</v>
+      </c>
+      <c r="H27" s="36">
+        <v>0</v>
+      </c>
+      <c r="I27" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="14">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="39">
+        <v>2</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0</v>
+      </c>
+      <c r="H28" s="36">
+        <v>0</v>
+      </c>
+      <c r="I28" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="39">
+        <v>2</v>
+      </c>
+      <c r="G29" s="36">
+        <v>0</v>
+      </c>
+      <c r="H29" s="36">
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="14">
+        <v>28</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="39">
+        <v>2</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0</v>
+      </c>
+      <c r="H30" s="36">
+        <v>0</v>
+      </c>
+      <c r="I30" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="39">
+        <v>0</v>
+      </c>
+      <c r="G31" s="36">
+        <v>0</v>
+      </c>
+      <c r="H31" s="36">
+        <v>0</v>
+      </c>
+      <c r="I31" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="14">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="39">
+        <v>2</v>
+      </c>
+      <c r="G32" s="36">
+        <v>0</v>
+      </c>
+      <c r="H32" s="36">
+        <v>0</v>
+      </c>
+      <c r="I32" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="14">
+        <v>31</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="39">
+        <v>0</v>
+      </c>
+      <c r="G33" s="36">
+        <v>1</v>
+      </c>
+      <c r="H33" s="36">
+        <v>0</v>
+      </c>
+      <c r="I33" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="14">
+        <v>32</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="39">
+        <v>0</v>
+      </c>
+      <c r="G34" s="36">
+        <v>1</v>
+      </c>
+      <c r="H34" s="36">
+        <v>0</v>
+      </c>
+      <c r="I34" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="14">
+        <v>33</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="39">
+        <v>0</v>
+      </c>
+      <c r="G35" s="36">
+        <v>1</v>
+      </c>
+      <c r="H35" s="36">
+        <v>0</v>
+      </c>
+      <c r="I35" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="14">
+        <v>34</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="39">
+        <v>0</v>
+      </c>
+      <c r="G36" s="36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="14">
+        <v>35</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="39">
+        <v>0</v>
+      </c>
+      <c r="G37" s="36">
+        <v>1</v>
+      </c>
+      <c r="H37" s="36">
+        <v>0</v>
+      </c>
+      <c r="I37" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="14">
+        <v>36</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="39">
+        <v>0</v>
+      </c>
+      <c r="G38" s="36">
+        <v>1</v>
+      </c>
+      <c r="H38" s="36">
+        <v>0</v>
+      </c>
+      <c r="I38" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="14">
+        <v>37</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="36">
+        <v>1</v>
+      </c>
+      <c r="H39" s="36">
+        <v>0</v>
+      </c>
+      <c r="I39" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="14">
+        <v>38</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="39">
+        <v>0</v>
+      </c>
+      <c r="G40" s="36">
+        <v>1</v>
+      </c>
+      <c r="H40" s="36">
+        <v>0</v>
+      </c>
+      <c r="I40" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="14">
+        <v>39</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="39">
+        <v>0</v>
+      </c>
+      <c r="G41" s="36">
+        <v>1</v>
+      </c>
+      <c r="H41" s="36">
+        <v>0</v>
+      </c>
+      <c r="I41" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="14">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="39">
+        <v>0</v>
+      </c>
+      <c r="G42" s="36">
+        <v>1</v>
+      </c>
+      <c r="H42" s="36">
+        <v>1</v>
+      </c>
+      <c r="I42" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="14">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>13</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="42">
-        <v>0</v>
-      </c>
-      <c r="G15" s="39">
-        <v>0</v>
-      </c>
-      <c r="H15" s="39">
-        <v>0</v>
-      </c>
-      <c r="I15" s="38">
+      <c r="G43" s="36">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36">
+        <v>0</v>
+      </c>
+      <c r="I43" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="14">
+        <v>42</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="39">
+        <v>0</v>
+      </c>
+      <c r="G44" s="36">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="14">
+        <v>43</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <v>14</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="42">
-        <v>0</v>
-      </c>
-      <c r="G16" s="39">
+      <c r="G45" s="36">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
+      <c r="I45" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="14">
+        <v>44</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="39">
+        <v>0</v>
+      </c>
+      <c r="G46" s="36">
         <v>1</v>
       </c>
-      <c r="H16" s="39">
-        <v>0</v>
-      </c>
-      <c r="I16" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="42">
-        <v>0</v>
-      </c>
-      <c r="G17" s="39">
+      <c r="H46" s="36">
         <v>1</v>
       </c>
-      <c r="H17" s="39">
-        <v>0</v>
-      </c>
-      <c r="I17" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>16</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="42">
-        <v>0</v>
-      </c>
-      <c r="G18" s="39">
+      <c r="I46" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="14">
+        <v>45</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="39">
+        <v>0</v>
+      </c>
+      <c r="G47" s="36">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>0</v>
+      </c>
+      <c r="I47" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="14">
+        <v>46</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="39">
+        <v>0</v>
+      </c>
+      <c r="G48" s="36">
+        <v>0</v>
+      </c>
+      <c r="H48" s="36">
+        <v>0</v>
+      </c>
+      <c r="I48" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="14">
+        <v>47</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="39">
+        <v>0</v>
+      </c>
+      <c r="G49" s="36">
         <v>1</v>
       </c>
-      <c r="H18" s="39">
-        <v>0</v>
-      </c>
-      <c r="I18" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>17</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="42">
-        <v>0</v>
-      </c>
-      <c r="G19" s="39">
+      <c r="H49" s="36">
         <v>1</v>
       </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-      <c r="I19" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>18</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="42">
-        <v>0</v>
-      </c>
-      <c r="G20" s="39">
+      <c r="I49" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="14">
+        <v>48</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="39">
+        <v>0</v>
+      </c>
+      <c r="G50" s="36">
+        <v>0</v>
+      </c>
+      <c r="H50" s="36">
+        <v>0</v>
+      </c>
+      <c r="I50" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="14">
+        <v>49</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="39">
+        <v>0</v>
+      </c>
+      <c r="G51" s="36">
+        <v>0</v>
+      </c>
+      <c r="H51" s="36">
+        <v>0</v>
+      </c>
+      <c r="I51" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="14">
+        <v>50</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="39">
+        <v>0</v>
+      </c>
+      <c r="G52" s="36">
+        <v>0</v>
+      </c>
+      <c r="H52" s="36">
+        <v>0</v>
+      </c>
+      <c r="I52" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="14">
+        <v>51</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="39">
+        <v>0</v>
+      </c>
+      <c r="G53" s="36">
+        <v>0</v>
+      </c>
+      <c r="H53" s="36">
+        <v>0</v>
+      </c>
+      <c r="I53" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="14">
+        <v>52</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="39">
+        <v>0</v>
+      </c>
+      <c r="G54" s="36">
+        <v>0</v>
+      </c>
+      <c r="H54" s="36">
+        <v>0</v>
+      </c>
+      <c r="I54" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="14">
+        <v>53</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="39">
+        <v>0</v>
+      </c>
+      <c r="G55" s="36">
+        <v>0</v>
+      </c>
+      <c r="H55" s="36">
+        <v>0</v>
+      </c>
+      <c r="I55" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="14">
+        <v>54</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="39">
+        <v>0</v>
+      </c>
+      <c r="G56" s="36">
+        <v>0</v>
+      </c>
+      <c r="H56" s="36">
+        <v>0</v>
+      </c>
+      <c r="I56" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="14">
+        <v>55</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="39">
+        <v>0</v>
+      </c>
+      <c r="G57" s="36">
+        <v>0</v>
+      </c>
+      <c r="H57" s="36">
+        <v>0</v>
+      </c>
+      <c r="I57" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="14">
+        <v>56</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="39">
+        <v>0</v>
+      </c>
+      <c r="G58" s="36">
+        <v>0</v>
+      </c>
+      <c r="H58" s="36">
+        <v>0</v>
+      </c>
+      <c r="I58" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="14">
+        <v>57</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="39">
+        <v>0</v>
+      </c>
+      <c r="G59" s="36">
         <v>1</v>
       </c>
-      <c r="H20" s="39">
-        <v>0</v>
-      </c>
-      <c r="I20" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>19</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="42">
-        <v>0</v>
-      </c>
-      <c r="G21" s="39">
+      <c r="H59" s="36">
         <v>1</v>
       </c>
-      <c r="H21" s="39">
-        <v>0</v>
-      </c>
-      <c r="I21" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>20</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="42">
-        <v>0</v>
-      </c>
-      <c r="G22" s="39">
+      <c r="I59" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="14">
+        <v>58</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="39">
+        <v>0</v>
+      </c>
+      <c r="G60" s="36">
+        <v>0</v>
+      </c>
+      <c r="H60" s="36">
+        <v>0</v>
+      </c>
+      <c r="I60" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="14">
+        <v>59</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="39">
+        <v>0</v>
+      </c>
+      <c r="G61" s="36">
+        <v>0</v>
+      </c>
+      <c r="H61" s="36">
+        <v>0</v>
+      </c>
+      <c r="I61" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="14">
+        <v>60</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F62" s="39">
+        <v>0</v>
+      </c>
+      <c r="G62" s="36">
+        <v>0</v>
+      </c>
+      <c r="H62" s="36">
+        <v>0</v>
+      </c>
+      <c r="I62" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="14">
+        <v>61</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="39">
+        <v>0</v>
+      </c>
+      <c r="G63" s="36">
+        <v>0</v>
+      </c>
+      <c r="H63" s="36">
+        <v>0</v>
+      </c>
+      <c r="I63" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="14">
+        <v>62</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="39">
+        <v>0</v>
+      </c>
+      <c r="G64" s="36">
         <v>1</v>
       </c>
-      <c r="H22" s="39">
-        <v>0</v>
-      </c>
-      <c r="I22" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>21</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="42">
-        <v>0</v>
-      </c>
-      <c r="G23" s="39">
+      <c r="H64" s="36">
         <v>1</v>
       </c>
-      <c r="H23" s="39">
-        <v>0</v>
-      </c>
-      <c r="I23" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>22</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="42">
-        <v>0</v>
-      </c>
-      <c r="G24" s="39">
+      <c r="I64" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="14">
+        <v>63</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="39">
+        <v>0</v>
+      </c>
+      <c r="G65" s="36">
+        <v>0</v>
+      </c>
+      <c r="H65" s="36">
+        <v>0</v>
+      </c>
+      <c r="I65" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="14">
+        <v>64</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" s="39">
+        <v>0</v>
+      </c>
+      <c r="G66" s="36">
+        <v>0</v>
+      </c>
+      <c r="H66" s="36">
+        <v>0</v>
+      </c>
+      <c r="I66" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="14">
+        <v>65</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="39">
+        <v>0</v>
+      </c>
+      <c r="G67" s="36">
+        <v>0</v>
+      </c>
+      <c r="H67" s="36">
+        <v>0</v>
+      </c>
+      <c r="I67" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="14">
+        <v>66</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" s="39">
+        <v>0</v>
+      </c>
+      <c r="G68" s="36">
+        <v>0</v>
+      </c>
+      <c r="H68" s="36">
+        <v>0</v>
+      </c>
+      <c r="I68" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="14">
+        <v>67</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" s="39">
+        <v>0</v>
+      </c>
+      <c r="G69" s="36">
+        <v>0</v>
+      </c>
+      <c r="H69" s="36">
+        <v>0</v>
+      </c>
+      <c r="I69" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="14">
+        <v>68</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" s="39">
+        <v>0</v>
+      </c>
+      <c r="G70" s="36">
+        <v>0</v>
+      </c>
+      <c r="H70" s="36">
+        <v>0</v>
+      </c>
+      <c r="I70" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="14">
+        <v>69</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="39">
+        <v>0</v>
+      </c>
+      <c r="G71" s="36">
+        <v>0</v>
+      </c>
+      <c r="H71" s="36">
+        <v>0</v>
+      </c>
+      <c r="I71" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="14">
+        <v>70</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="39">
+        <v>0</v>
+      </c>
+      <c r="G72" s="36">
+        <v>0</v>
+      </c>
+      <c r="H72" s="36">
+        <v>0</v>
+      </c>
+      <c r="I72" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="14">
+        <v>71</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="39">
+        <v>0</v>
+      </c>
+      <c r="G73" s="36">
+        <v>0</v>
+      </c>
+      <c r="H73" s="36">
+        <v>0</v>
+      </c>
+      <c r="I73" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="14">
+        <v>72</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" s="39">
+        <v>0</v>
+      </c>
+      <c r="G74" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="39">
-        <v>0</v>
-      </c>
-      <c r="I24" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>23</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="42">
-        <v>0</v>
-      </c>
-      <c r="G25" s="39">
+      <c r="H74" s="36">
         <v>1</v>
       </c>
-      <c r="H25" s="39">
+      <c r="I74" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="14">
+        <v>73</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" s="39">
+        <v>0</v>
+      </c>
+      <c r="G75" s="36">
         <v>1</v>
       </c>
-      <c r="I25" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="42">
-        <v>0</v>
-      </c>
-      <c r="G26" s="39">
-        <v>0</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0</v>
-      </c>
-      <c r="I26" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>25</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="42">
-        <v>2</v>
-      </c>
-      <c r="G27" s="39">
-        <v>0</v>
-      </c>
-      <c r="H27" s="39">
-        <v>0</v>
-      </c>
-      <c r="I27" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
-        <v>26</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="42">
-        <v>2</v>
-      </c>
-      <c r="G28" s="39">
-        <v>0</v>
-      </c>
-      <c r="H28" s="39">
-        <v>0</v>
-      </c>
-      <c r="I28" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
-        <v>27</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="42">
-        <v>2</v>
-      </c>
-      <c r="G29" s="39">
-        <v>0</v>
-      </c>
-      <c r="H29" s="39">
-        <v>0</v>
-      </c>
-      <c r="I29" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
-        <v>28</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="42">
-        <v>2</v>
-      </c>
-      <c r="G30" s="39">
-        <v>0</v>
-      </c>
-      <c r="H30" s="39">
-        <v>0</v>
-      </c>
-      <c r="I30" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>29</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="42">
-        <v>0</v>
-      </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39">
-        <v>0</v>
-      </c>
-      <c r="I31" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
-        <v>30</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="42">
-        <v>0</v>
-      </c>
-      <c r="G32" s="39">
+      <c r="H75" s="36">
+        <v>0</v>
+      </c>
+      <c r="I75" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="14">
+        <v>74</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="39">
+        <v>0</v>
+      </c>
+      <c r="G76" s="36">
         <v>1</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H76" s="36">
+        <v>0</v>
+      </c>
+      <c r="I76" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="14">
+        <v>75</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="39">
+        <v>0</v>
+      </c>
+      <c r="G77" s="36">
         <v>1</v>
       </c>
-      <c r="I32" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>31</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="42">
-        <v>0</v>
-      </c>
-      <c r="G33" s="39">
+      <c r="H77" s="36">
+        <v>0</v>
+      </c>
+      <c r="I77" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="14">
+        <v>76</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="39">
+        <v>0</v>
+      </c>
+      <c r="G78" s="36">
         <v>1</v>
       </c>
-      <c r="H33" s="39">
-        <v>0</v>
-      </c>
-      <c r="I33" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
-        <v>32</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="42">
-        <v>0</v>
-      </c>
-      <c r="G34" s="39">
+      <c r="H78" s="36">
+        <v>0</v>
+      </c>
+      <c r="I78" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="14">
+        <v>77</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="39">
+        <v>0</v>
+      </c>
+      <c r="G79" s="36">
         <v>1</v>
       </c>
-      <c r="H34" s="39">
-        <v>0</v>
-      </c>
-      <c r="I34" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>33</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="42">
-        <v>0</v>
-      </c>
-      <c r="G35" s="39">
+      <c r="H79" s="36">
+        <v>0</v>
+      </c>
+      <c r="I79" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="14">
+        <v>78</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="39">
+        <v>0</v>
+      </c>
+      <c r="G80" s="36">
         <v>1</v>
       </c>
-      <c r="H35" s="39">
-        <v>0</v>
-      </c>
-      <c r="I35" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
-        <v>34</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="42">
-        <v>0</v>
-      </c>
-      <c r="G36" s="39">
+      <c r="H80" s="36">
+        <v>0</v>
+      </c>
+      <c r="I80" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="14">
+        <v>79</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" s="39">
+        <v>0</v>
+      </c>
+      <c r="G81" s="36">
         <v>1</v>
       </c>
-      <c r="H36" s="39">
-        <v>0</v>
-      </c>
-      <c r="I36" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
-        <v>35</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="42">
-        <v>0</v>
-      </c>
-      <c r="G37" s="39">
+      <c r="H81" s="36">
+        <v>0</v>
+      </c>
+      <c r="I81" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="14">
+        <v>80</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="39">
+        <v>0</v>
+      </c>
+      <c r="G82" s="36">
         <v>1</v>
       </c>
-      <c r="H37" s="39">
-        <v>0</v>
-      </c>
-      <c r="I37" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
-        <v>36</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="42">
-        <v>0</v>
-      </c>
-      <c r="G38" s="39">
+      <c r="H82" s="36">
+        <v>0</v>
+      </c>
+      <c r="I82" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="14">
+        <v>81</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" s="39">
+        <v>0</v>
+      </c>
+      <c r="G83" s="36">
         <v>1</v>
       </c>
-      <c r="H38" s="39">
-        <v>0</v>
-      </c>
-      <c r="I38" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
-        <v>37</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" s="42">
-        <v>0</v>
-      </c>
-      <c r="G39" s="39">
+      <c r="H83" s="36">
+        <v>0</v>
+      </c>
+      <c r="I83" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18" thickBot="1">
+      <c r="A84" s="15">
+        <v>82</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" s="40">
+        <v>0</v>
+      </c>
+      <c r="G84" s="40">
         <v>1</v>
       </c>
-      <c r="H39" s="39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
-        <v>38</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="42">
-        <v>0</v>
-      </c>
-      <c r="G40" s="39">
+      <c r="H84" s="37">
         <v>1</v>
       </c>
-      <c r="H40" s="39">
-        <v>0</v>
-      </c>
-      <c r="I40" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="17">
-        <v>39</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="42">
-        <v>0</v>
-      </c>
-      <c r="G41" s="39">
-        <v>1</v>
-      </c>
-      <c r="H41" s="39">
-        <v>0</v>
-      </c>
-      <c r="I41" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
-        <v>40</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="39">
-        <v>1</v>
-      </c>
-      <c r="H42" s="39">
-        <v>1</v>
-      </c>
-      <c r="I42" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
-        <v>41</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="42">
-        <v>0</v>
-      </c>
-      <c r="G43" s="39">
-        <v>0</v>
-      </c>
-      <c r="H43" s="39">
-        <v>0</v>
-      </c>
-      <c r="I43" s="38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
-        <v>42</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="42">
-        <v>0</v>
-      </c>
-      <c r="G44" s="39">
-        <v>0</v>
-      </c>
-      <c r="H44" s="39">
-        <v>0</v>
-      </c>
-      <c r="I44" s="38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
-        <v>43</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="42">
-        <v>0</v>
-      </c>
-      <c r="G45" s="39">
-        <v>1</v>
-      </c>
-      <c r="H45" s="39">
-        <v>1</v>
-      </c>
-      <c r="I45" s="38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
-        <v>44</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="42">
-        <v>0</v>
-      </c>
-      <c r="G46" s="39">
-        <v>1</v>
-      </c>
-      <c r="H46" s="39">
-        <v>1</v>
-      </c>
-      <c r="I46" s="38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
-        <v>45</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" s="42">
-        <v>0</v>
-      </c>
-      <c r="G47" s="39">
-        <v>0</v>
-      </c>
-      <c r="H47" s="39">
-        <v>0</v>
-      </c>
-      <c r="I47" s="38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
-        <v>46</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="42">
-        <v>0</v>
-      </c>
-      <c r="G48" s="39">
-        <v>0</v>
-      </c>
-      <c r="H48" s="39">
-        <v>0</v>
-      </c>
-      <c r="I48" s="38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
-        <v>47</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="42">
-        <v>0</v>
-      </c>
-      <c r="G49" s="39">
-        <v>1</v>
-      </c>
-      <c r="H49" s="39">
-        <v>1</v>
-      </c>
-      <c r="I49" s="38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
-        <v>48</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="42">
-        <v>0</v>
-      </c>
-      <c r="G50" s="39">
-        <v>0</v>
-      </c>
-      <c r="H50" s="39">
-        <v>0</v>
-      </c>
-      <c r="I50" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
-        <v>49</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="42">
-        <v>0</v>
-      </c>
-      <c r="G51" s="39">
-        <v>0</v>
-      </c>
-      <c r="H51" s="39">
-        <v>0</v>
-      </c>
-      <c r="I51" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="17">
-        <v>50</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="42">
-        <v>0</v>
-      </c>
-      <c r="G52" s="39">
-        <v>0</v>
-      </c>
-      <c r="H52" s="39">
-        <v>0</v>
-      </c>
-      <c r="I52" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="17">
-        <v>51</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" s="42">
-        <v>0</v>
-      </c>
-      <c r="G53" s="39">
-        <v>0</v>
-      </c>
-      <c r="H53" s="39">
-        <v>0</v>
-      </c>
-      <c r="I53" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
-        <v>52</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F54" s="42">
-        <v>0</v>
-      </c>
-      <c r="G54" s="39">
-        <v>0</v>
-      </c>
-      <c r="H54" s="39">
-        <v>0</v>
-      </c>
-      <c r="I54" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="17">
-        <v>53</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" s="42">
-        <v>0</v>
-      </c>
-      <c r="G55" s="39">
-        <v>0</v>
-      </c>
-      <c r="H55" s="39">
-        <v>0</v>
-      </c>
-      <c r="I55" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
-        <v>54</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="42">
-        <v>0</v>
-      </c>
-      <c r="G56" s="39">
-        <v>0</v>
-      </c>
-      <c r="H56" s="39">
-        <v>0</v>
-      </c>
-      <c r="I56" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
-        <v>55</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="42">
-        <v>0</v>
-      </c>
-      <c r="G57" s="39">
-        <v>0</v>
-      </c>
-      <c r="H57" s="39">
-        <v>0</v>
-      </c>
-      <c r="I57" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
-        <v>56</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="42">
-        <v>0</v>
-      </c>
-      <c r="G58" s="39">
-        <v>0</v>
-      </c>
-      <c r="H58" s="39">
-        <v>0</v>
-      </c>
-      <c r="I58" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
-        <v>57</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="42">
-        <v>0</v>
-      </c>
-      <c r="G59" s="39">
-        <v>1</v>
-      </c>
-      <c r="H59" s="39">
-        <v>1</v>
-      </c>
-      <c r="I59" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
-        <v>58</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="F60" s="42">
-        <v>0</v>
-      </c>
-      <c r="G60" s="39">
-        <v>0</v>
-      </c>
-      <c r="H60" s="39">
-        <v>0</v>
-      </c>
-      <c r="I60" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
-        <v>59</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F61" s="42">
-        <v>0</v>
-      </c>
-      <c r="G61" s="39">
-        <v>0</v>
-      </c>
-      <c r="H61" s="39">
-        <v>0</v>
-      </c>
-      <c r="I61" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
-        <v>60</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F62" s="42">
-        <v>0</v>
-      </c>
-      <c r="G62" s="39">
-        <v>0</v>
-      </c>
-      <c r="H62" s="39">
-        <v>0</v>
-      </c>
-      <c r="I62" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
-        <v>61</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F63" s="42">
-        <v>0</v>
-      </c>
-      <c r="G63" s="39">
-        <v>0</v>
-      </c>
-      <c r="H63" s="39">
-        <v>0</v>
-      </c>
-      <c r="I63" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
-        <v>62</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="42">
-        <v>0</v>
-      </c>
-      <c r="G64" s="39">
-        <v>1</v>
-      </c>
-      <c r="H64" s="39">
-        <v>1</v>
-      </c>
-      <c r="I64" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="17">
-        <v>63</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F65" s="42">
-        <v>0</v>
-      </c>
-      <c r="G65" s="39">
-        <v>0</v>
-      </c>
-      <c r="H65" s="39">
-        <v>0</v>
-      </c>
-      <c r="I65" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
-        <v>64</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F66" s="42">
-        <v>0</v>
-      </c>
-      <c r="G66" s="39">
-        <v>0</v>
-      </c>
-      <c r="H66" s="39">
-        <v>0</v>
-      </c>
-      <c r="I66" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
-        <v>65</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F67" s="42">
-        <v>0</v>
-      </c>
-      <c r="G67" s="39">
-        <v>0</v>
-      </c>
-      <c r="H67" s="39">
-        <v>0</v>
-      </c>
-      <c r="I67" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
-        <v>66</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F68" s="42">
-        <v>0</v>
-      </c>
-      <c r="G68" s="39">
-        <v>0</v>
-      </c>
-      <c r="H68" s="39">
-        <v>0</v>
-      </c>
-      <c r="I68" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
-        <v>67</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F69" s="42">
-        <v>0</v>
-      </c>
-      <c r="G69" s="39">
-        <v>0</v>
-      </c>
-      <c r="H69" s="39">
-        <v>0</v>
-      </c>
-      <c r="I69" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
-        <v>68</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" s="42">
-        <v>0</v>
-      </c>
-      <c r="G70" s="39">
-        <v>0</v>
-      </c>
-      <c r="H70" s="39">
-        <v>0</v>
-      </c>
-      <c r="I70" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
-        <v>69</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F71" s="42">
-        <v>0</v>
-      </c>
-      <c r="G71" s="39">
-        <v>0</v>
-      </c>
-      <c r="H71" s="39">
-        <v>0</v>
-      </c>
-      <c r="I71" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
-        <v>70</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F72" s="42">
-        <v>0</v>
-      </c>
-      <c r="G72" s="39">
-        <v>0</v>
-      </c>
-      <c r="H72" s="39">
-        <v>0</v>
-      </c>
-      <c r="I72" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
-        <v>71</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="42">
-        <v>0</v>
-      </c>
-      <c r="G73" s="39">
-        <v>0</v>
-      </c>
-      <c r="H73" s="39">
-        <v>0</v>
-      </c>
-      <c r="I73" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
-        <v>72</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F74" s="42">
-        <v>0</v>
-      </c>
-      <c r="G74" s="39">
-        <v>1</v>
-      </c>
-      <c r="H74" s="39">
-        <v>1</v>
-      </c>
-      <c r="I74" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
-        <v>73</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F75" s="42">
-        <v>0</v>
-      </c>
-      <c r="G75" s="39">
-        <v>1</v>
-      </c>
-      <c r="H75" s="39">
-        <v>0</v>
-      </c>
-      <c r="I75" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
-        <v>74</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" s="42">
-        <v>0</v>
-      </c>
-      <c r="G76" s="39">
-        <v>1</v>
-      </c>
-      <c r="H76" s="39">
-        <v>0</v>
-      </c>
-      <c r="I76" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
-        <v>75</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F77" s="42">
-        <v>0</v>
-      </c>
-      <c r="G77" s="39">
-        <v>1</v>
-      </c>
-      <c r="H77" s="39">
-        <v>0</v>
-      </c>
-      <c r="I77" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
-        <v>76</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F78" s="42">
-        <v>0</v>
-      </c>
-      <c r="G78" s="39">
-        <v>1</v>
-      </c>
-      <c r="H78" s="39">
-        <v>0</v>
-      </c>
-      <c r="I78" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
-        <v>77</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F79" s="42">
-        <v>0</v>
-      </c>
-      <c r="G79" s="39">
-        <v>1</v>
-      </c>
-      <c r="H79" s="39">
-        <v>0</v>
-      </c>
-      <c r="I79" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
-        <v>78</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F80" s="42">
-        <v>0</v>
-      </c>
-      <c r="G80" s="39">
-        <v>1</v>
-      </c>
-      <c r="H80" s="39">
-        <v>0</v>
-      </c>
-      <c r="I80" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
-        <v>79</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F81" s="42">
-        <v>0</v>
-      </c>
-      <c r="G81" s="39">
-        <v>1</v>
-      </c>
-      <c r="H81" s="39">
-        <v>0</v>
-      </c>
-      <c r="I81" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
-        <v>80</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="F82" s="42">
-        <v>0</v>
-      </c>
-      <c r="G82" s="39">
-        <v>1</v>
-      </c>
-      <c r="H82" s="39">
-        <v>0</v>
-      </c>
-      <c r="I82" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
-        <v>81</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="F83" s="42">
-        <v>0</v>
-      </c>
-      <c r="G83" s="39">
-        <v>1</v>
-      </c>
-      <c r="H83" s="39">
-        <v>0</v>
-      </c>
-      <c r="I83" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="18">
-        <v>82</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F84" s="43">
-        <v>0</v>
-      </c>
-      <c r="G84" s="43">
-        <v>1</v>
-      </c>
-      <c r="H84" s="40">
-        <v>1</v>
-      </c>
-      <c r="I84" s="43">
+      <c r="I84" s="40">
         <v>12</v>
       </c>
     </row>
@@ -4714,51 +4815,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18" thickBot="1">
+      <c r="A1" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="66" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3">
+      <c r="A2" s="68">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="69">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="70" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" s="71">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="67">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="72" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" thickBot="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4768,940 +4878,940 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="60" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="62">
-        <v>0</v>
-      </c>
-      <c r="B2" s="61" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="59">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="62">
+    <row r="3" spans="1:3">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="58" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="62">
+    <row r="4" spans="1:3">
+      <c r="A4" s="59">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="58" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="62">
+    <row r="5" spans="1:3">
+      <c r="A5" s="59">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="58" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="62">
+    <row r="6" spans="1:3">
+      <c r="A6" s="59">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="58" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="62">
+    <row r="7" spans="1:3">
+      <c r="A7" s="59">
         <v>5</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="58" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="62">
+    <row r="8" spans="1:3">
+      <c r="A8" s="59">
         <v>6</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="58" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="62">
+    <row r="9" spans="1:3">
+      <c r="A9" s="59">
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="62">
+    <row r="10" spans="1:3">
+      <c r="A10" s="59">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="57" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+    <row r="11" spans="1:3">
+      <c r="A11" s="59">
         <v>9</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="58" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="62">
+    <row r="12" spans="1:3">
+      <c r="A12" s="59">
         <v>10</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="57" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="62">
+    <row r="13" spans="1:3">
+      <c r="A13" s="59">
         <v>11</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
+    <row r="14" spans="1:3">
+      <c r="A14" s="59">
         <v>12</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="62">
+    <row r="15" spans="1:3">
+      <c r="A15" s="59">
         <v>13</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="62">
+    <row r="16" spans="1:3">
+      <c r="A16" s="59">
         <v>14</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="57" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="62">
+    <row r="17" spans="1:3">
+      <c r="A17" s="59">
         <v>15</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="57" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="62">
+    <row r="18" spans="1:3">
+      <c r="A18" s="59">
         <v>16</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="62">
+    <row r="19" spans="1:3">
+      <c r="A19" s="59">
         <v>17</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="62">
+    <row r="20" spans="1:3">
+      <c r="A20" s="59">
         <v>18</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="57" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="62">
+    <row r="21" spans="1:3">
+      <c r="A21" s="59">
         <v>19</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="62">
+    <row r="22" spans="1:3">
+      <c r="A22" s="59">
         <v>20</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="62">
+    <row r="23" spans="1:3">
+      <c r="A23" s="59">
         <v>21</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="62">
+    <row r="24" spans="1:3">
+      <c r="A24" s="59">
         <v>22</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="62">
+    <row r="25" spans="1:3">
+      <c r="A25" s="59">
         <v>23</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="62">
+    <row r="26" spans="1:3">
+      <c r="A26" s="59">
         <v>24</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="62">
+    <row r="27" spans="1:3">
+      <c r="A27" s="59">
         <v>25</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="57" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="62">
+    <row r="28" spans="1:3">
+      <c r="A28" s="59">
         <v>26</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="62">
+    <row r="29" spans="1:3">
+      <c r="A29" s="59">
         <v>27</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="62">
+    <row r="30" spans="1:3">
+      <c r="A30" s="59">
         <v>28</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="62">
+    <row r="31" spans="1:3">
+      <c r="A31" s="59">
         <v>29</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="62">
+    <row r="32" spans="1:3">
+      <c r="A32" s="59">
         <v>30</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="58" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="62">
+    <row r="33" spans="1:3">
+      <c r="A33" s="59">
         <v>31</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="58" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="62">
+    <row r="34" spans="1:3">
+      <c r="A34" s="59">
         <v>32</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="58" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="62">
+    <row r="35" spans="1:3">
+      <c r="A35" s="59">
         <v>33</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="58" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="62">
+    <row r="36" spans="1:3">
+      <c r="A36" s="59">
         <v>34</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="58" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="62">
+    <row r="37" spans="1:3">
+      <c r="A37" s="59">
         <v>35</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="62">
+    <row r="38" spans="1:3">
+      <c r="A38" s="59">
         <v>36</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="58" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="62">
+    <row r="39" spans="1:3">
+      <c r="A39" s="59">
         <v>37</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="58" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="62">
+    <row r="40" spans="1:3" ht="18" thickBot="1">
+      <c r="A40" s="59">
         <v>38</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="62" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="62">
+    <row r="41" spans="1:3">
+      <c r="A41" s="59">
         <v>39</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="62">
+    <row r="42" spans="1:3">
+      <c r="A42" s="59">
         <v>40</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="62">
+    <row r="43" spans="1:3">
+      <c r="A43" s="59">
         <v>41</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="62">
+    <row r="44" spans="1:3">
+      <c r="A44" s="59">
         <v>42</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="62">
+    <row r="45" spans="1:3">
+      <c r="A45" s="59">
         <v>43</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="62">
+    <row r="46" spans="1:3">
+      <c r="A46" s="59">
         <v>44</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="62">
+    <row r="47" spans="1:3">
+      <c r="A47" s="59">
         <v>45</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="62">
+    <row r="48" spans="1:3">
+      <c r="A48" s="59">
         <v>46</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="62">
+    <row r="49" spans="1:3">
+      <c r="A49" s="59">
         <v>47</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="62">
+    <row r="50" spans="1:3">
+      <c r="A50" s="59">
         <v>48</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="62">
+    <row r="51" spans="1:3">
+      <c r="A51" s="59">
         <v>49</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="62">
+    <row r="52" spans="1:3">
+      <c r="A52" s="59">
         <v>50</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="62">
+    <row r="53" spans="1:3">
+      <c r="A53" s="59">
         <v>51</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="62">
+    <row r="54" spans="1:3">
+      <c r="A54" s="59">
         <v>52</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="62">
+    <row r="55" spans="1:3">
+      <c r="A55" s="59">
         <v>53</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="62">
+    <row r="56" spans="1:3">
+      <c r="A56" s="59">
         <v>54</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="62">
+    <row r="57" spans="1:3">
+      <c r="A57" s="59">
         <v>55</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="62">
+    <row r="58" spans="1:3">
+      <c r="A58" s="59">
         <v>56</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="C58" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="62">
+    <row r="59" spans="1:3">
+      <c r="A59" s="59">
         <v>57</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="62">
+    <row r="60" spans="1:3">
+      <c r="A60" s="59">
         <v>58</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="62">
+    <row r="61" spans="1:3">
+      <c r="A61" s="59">
         <v>59</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="62">
+    <row r="62" spans="1:3">
+      <c r="A62" s="59">
         <v>60</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="62">
+    <row r="63" spans="1:3">
+      <c r="A63" s="59">
         <v>61</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="62">
+    <row r="64" spans="1:3">
+      <c r="A64" s="59">
         <v>62</v>
       </c>
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="62">
+    <row r="65" spans="1:3">
+      <c r="A65" s="59">
         <v>63</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="62">
+    <row r="66" spans="1:3">
+      <c r="A66" s="59">
         <v>64</v>
       </c>
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="62">
+    <row r="67" spans="1:3">
+      <c r="A67" s="59">
         <v>65</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="62">
+    <row r="68" spans="1:3">
+      <c r="A68" s="59">
         <v>66</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="62">
+    <row r="69" spans="1:3">
+      <c r="A69" s="59">
         <v>67</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="C69" s="64" t="s">
+      <c r="C69" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="62">
+    <row r="70" spans="1:3">
+      <c r="A70" s="59">
         <v>68</v>
       </c>
-      <c r="B70" s="61" t="s">
+      <c r="B70" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C70" s="64" t="s">
+      <c r="C70" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="62">
+    <row r="71" spans="1:3">
+      <c r="A71" s="59">
         <v>69</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="62">
+    <row r="72" spans="1:3">
+      <c r="A72" s="59">
         <v>70</v>
       </c>
-      <c r="B72" s="61" t="s">
+      <c r="B72" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="62">
+    <row r="73" spans="1:3">
+      <c r="A73" s="59">
         <v>71</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="62">
+    <row r="74" spans="1:3">
+      <c r="A74" s="59">
         <v>72</v>
       </c>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="64" t="s">
+      <c r="C74" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="62">
+    <row r="75" spans="1:3">
+      <c r="A75" s="59">
         <v>73</v>
       </c>
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="62">
+    <row r="76" spans="1:3">
+      <c r="A76" s="59">
         <v>74</v>
       </c>
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="62">
+    <row r="77" spans="1:3">
+      <c r="A77" s="59">
         <v>75</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="62">
+    <row r="78" spans="1:3">
+      <c r="A78" s="59">
         <v>76</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="62">
+    <row r="79" spans="1:3">
+      <c r="A79" s="59">
         <v>77</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="62">
+    <row r="80" spans="1:3">
+      <c r="A80" s="59">
         <v>78</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="62">
+    <row r="81" spans="1:3">
+      <c r="A81" s="59">
         <v>79</v>
       </c>
-      <c r="B81" s="61" t="s">
+      <c r="B81" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="62">
+    <row r="82" spans="1:3">
+      <c r="A82" s="59">
         <v>80</v>
       </c>
-      <c r="B82" s="61" t="s">
+      <c r="B82" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="64" t="s">
+      <c r="C82" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="62">
+    <row r="83" spans="1:3">
+      <c r="A83" s="59">
         <v>81</v>
       </c>
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="62">
+    <row r="84" spans="1:3">
+      <c r="A84" s="59">
         <v>82</v>
       </c>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="61" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5712,28 +5822,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="63" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5741,7 +5851,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5749,7 +5859,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5757,7 +5867,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5765,7 +5875,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5773,7 +5883,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5781,7 +5891,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5789,7 +5899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5797,7 +5907,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5805,7 +5915,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5813,7 +5923,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5821,7 +5931,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
